--- a/Import Data/16x12.xlsx
+++ b/Import Data/16x12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/Import Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A5043B-EB09-4270-885B-491BF3FE1D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46725860-3532-459C-935F-648282EA5FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7188" yWindow="5160" windowWidth="20736" windowHeight="10440" xr2:uid="{8D566E87-4410-4586-81EA-D152B4D8F784}"/>
+    <workbookView xWindow="19395" yWindow="4035" windowWidth="14130" windowHeight="14790" xr2:uid="{8D566E87-4410-4586-81EA-D152B4D8F784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="46">
   <si>
     <t>16x12</t>
   </si>
@@ -196,15 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>0.51-NaN</t>
-  </si>
-  <si>
-    <t>0.81-NaN</t>
-  </si>
-  <si>
-    <t>0.84-NaN</t>
   </si>
 </sst>
 </file>
@@ -559,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23E7E23-99C0-4082-897D-79FC7160A294}">
   <dimension ref="A1:I454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +545,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -605,12 +574,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -621,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -644,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -667,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -675,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -692,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -706,7 +675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -732,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -752,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -778,7 +747,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -804,7 +773,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -830,7 +799,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.5</v>
       </c>
@@ -856,7 +825,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.1</v>
       </c>
@@ -882,7 +851,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.6</v>
       </c>
@@ -908,7 +877,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.1</v>
       </c>
@@ -934,7 +903,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.6</v>
       </c>
@@ -960,7 +929,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.0999999999999996</v>
       </c>
@@ -986,7 +955,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.5999999999999996</v>
       </c>
@@ -1012,7 +981,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.0999999999999996</v>
       </c>
@@ -1038,7 +1007,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.7</v>
       </c>
@@ -1064,7 +1033,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.2</v>
       </c>
@@ -1090,7 +1059,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.7</v>
       </c>
@@ -1116,7 +1085,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.2</v>
       </c>
@@ -1142,7 +1111,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.7</v>
       </c>
@@ -1168,7 +1137,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8.1999999999999993</v>
       </c>
@@ -1194,7 +1163,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8.6999999999999993</v>
       </c>
@@ -1220,7 +1189,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9.3000000000000007</v>
       </c>
@@ -1246,7 +1215,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9.8000000000000007</v>
       </c>
@@ -1272,7 +1241,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10.3</v>
       </c>
@@ -1298,7 +1267,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10.8</v>
       </c>
@@ -1324,7 +1293,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11.3</v>
       </c>
@@ -1350,7 +1319,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11.8</v>
       </c>
@@ -1376,7 +1345,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12.3</v>
       </c>
@@ -1402,7 +1371,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12.9</v>
       </c>
@@ -1428,7 +1397,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13.4</v>
       </c>
@@ -1454,7 +1423,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13.9</v>
       </c>
@@ -1480,7 +1449,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14.4</v>
       </c>
@@ -1506,7 +1475,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14.9</v>
       </c>
@@ -1532,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +1515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1592,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1618,7 +1587,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1644,7 +1613,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.1</v>
       </c>
@@ -1670,7 +1639,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.1</v>
       </c>
@@ -1696,7 +1665,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.0999999999999996</v>
       </c>
@@ -1722,7 +1691,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.0999999999999996</v>
       </c>
@@ -1748,7 +1717,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.2</v>
       </c>
@@ -1774,7 +1743,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.2</v>
       </c>
@@ -1800,7 +1769,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8.1999999999999993</v>
       </c>
@@ -1826,7 +1795,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9.3000000000000007</v>
       </c>
@@ -1852,7 +1821,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10.3</v>
       </c>
@@ -1878,7 +1847,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11.3</v>
       </c>
@@ -1904,7 +1873,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12.3</v>
       </c>
@@ -1930,7 +1899,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13.4</v>
       </c>
@@ -1956,7 +1925,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14.4</v>
       </c>
@@ -1982,7 +1951,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15.4</v>
       </c>
@@ -2008,7 +1977,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16.5</v>
       </c>
@@ -2034,7 +2003,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17.5</v>
       </c>
@@ -2060,7 +2029,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18.5</v>
       </c>
@@ -2086,7 +2055,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>19.5</v>
       </c>
@@ -2112,7 +2081,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20.6</v>
       </c>
@@ -2138,7 +2107,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21.6</v>
       </c>
@@ -2164,7 +2133,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>22.6</v>
       </c>
@@ -2190,7 +2159,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>23.7</v>
       </c>
@@ -2216,7 +2185,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>24.7</v>
       </c>
@@ -2242,7 +2211,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>25.7</v>
       </c>
@@ -2268,7 +2237,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>26.7</v>
       </c>
@@ -2294,7 +2263,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>27.8</v>
       </c>
@@ -2320,7 +2289,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>28.8</v>
       </c>
@@ -2346,7 +2315,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>29.8</v>
       </c>
@@ -2372,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2355,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2432,7 +2401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2458,7 +2427,7 @@
         <v>2.0329999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.5</v>
       </c>
@@ -2484,7 +2453,7 @@
         <v>2.0339999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3.1</v>
       </c>
@@ -2510,7 +2479,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4.5999999999999996</v>
       </c>
@@ -2536,7 +2505,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6.2</v>
       </c>
@@ -2562,7 +2531,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7.7</v>
       </c>
@@ -2588,7 +2557,7 @@
         <v>2.0339999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9.3000000000000007</v>
       </c>
@@ -2614,7 +2583,7 @@
         <v>2.0310000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10.8</v>
       </c>
@@ -2640,7 +2609,7 @@
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12.3</v>
       </c>
@@ -2666,7 +2635,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>13.9</v>
       </c>
@@ -2692,7 +2661,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15.4</v>
       </c>
@@ -2718,7 +2687,7 @@
         <v>1.962</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>17</v>
       </c>
@@ -2744,7 +2713,7 @@
         <v>1.921</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18.5</v>
       </c>
@@ -2770,7 +2739,7 @@
         <v>1.869</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20.100000000000001</v>
       </c>
@@ -2796,7 +2765,7 @@
         <v>1.8069999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21.6</v>
       </c>
@@ -2822,7 +2791,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23.1</v>
       </c>
@@ -2848,7 +2817,7 @@
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24.7</v>
       </c>
@@ -2874,7 +2843,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>26.2</v>
       </c>
@@ -2900,7 +2869,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>27.8</v>
       </c>
@@ -2926,7 +2895,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>29.3</v>
       </c>
@@ -2952,7 +2921,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>30.8</v>
       </c>
@@ -2978,7 +2947,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>32.4</v>
       </c>
@@ -3004,7 +2973,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>33.9</v>
       </c>
@@ -3030,7 +2999,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>35.5</v>
       </c>
@@ -3056,7 +3025,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>37</v>
       </c>
@@ -3082,7 +3051,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>38.6</v>
       </c>
@@ -3108,7 +3077,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>40.1</v>
       </c>
@@ -3134,7 +3103,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>41.6</v>
       </c>
@@ -3160,7 +3129,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>43.2</v>
       </c>
@@ -3186,7 +3155,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>44.7</v>
       </c>
@@ -3212,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3226,7 +3195,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3252,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3272,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3298,7 +3267,7 @@
         <v>3.698</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2.1</v>
       </c>
@@ -3324,7 +3293,7 @@
         <v>3.6989999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4.0999999999999996</v>
       </c>
@@ -3350,7 +3319,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6.2</v>
       </c>
@@ -3376,7 +3345,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8.1999999999999993</v>
       </c>
@@ -3402,7 +3371,7 @@
         <v>3.698</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10.3</v>
       </c>
@@ -3428,7 +3397,7 @@
         <v>3.694</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12.3</v>
       </c>
@@ -3454,7 +3423,7 @@
         <v>3.6859999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14.4</v>
       </c>
@@ -3480,7 +3449,7 @@
         <v>3.673</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>16.399999999999999</v>
       </c>
@@ -3506,7 +3475,7 @@
         <v>3.6509999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18.5</v>
       </c>
@@ -3532,7 +3501,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20.6</v>
       </c>
@@ -3558,7 +3527,7 @@
         <v>3.548</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>22.6</v>
       </c>
@@ -3584,7 +3553,7 @@
         <v>3.4670000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24.7</v>
       </c>
@@ -3610,7 +3579,7 @@
         <v>3.367</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>26.7</v>
       </c>
@@ -3636,7 +3605,7 @@
         <v>3.2469999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>28.8</v>
       </c>
@@ -3662,7 +3631,7 @@
         <v>3.105</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>30.8</v>
       </c>
@@ -3688,7 +3657,7 @@
         <v>2.9420000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>32.9</v>
       </c>
@@ -3714,7 +3683,7 @@
         <v>2.7570000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>35</v>
       </c>
@@ -3740,7 +3709,7 @@
         <v>2.5680000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>37</v>
       </c>
@@ -3766,7 +3735,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>39.1</v>
       </c>
@@ -3792,7 +3761,7 @@
         <v>2.1779999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>41.1</v>
       </c>
@@ -3818,7 +3787,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>43.2</v>
       </c>
@@ -3844,7 +3813,7 @@
         <v>1.7729999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>45.2</v>
       </c>
@@ -3870,7 +3839,7 @@
         <v>1.5609999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>47.3</v>
       </c>
@@ -3896,7 +3865,7 @@
         <v>1.3460000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>49.3</v>
       </c>
@@ -3922,7 +3891,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>51.4</v>
       </c>
@@ -3948,7 +3917,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>53.5</v>
       </c>
@@ -3974,7 +3943,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>55.5</v>
       </c>
@@ -4000,7 +3969,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>57.6</v>
       </c>
@@ -4026,7 +3995,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>59.6</v>
       </c>
@@ -4052,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4066,7 +4035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4092,7 +4061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4112,7 +4081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4138,7 +4107,7 @@
         <v>5.976</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.6</v>
       </c>
@@ -4164,7 +4133,7 @@
         <v>5.9790000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5.0999999999999996</v>
       </c>
@@ -4190,7 +4159,7 @@
         <v>5.9779999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.7</v>
       </c>
@@ -4216,7 +4185,7 @@
         <v>5.9740000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10.3</v>
       </c>
@@ -4242,7 +4211,7 @@
         <v>5.9660000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12.9</v>
       </c>
@@ -4268,7 +4237,7 @@
         <v>5.952</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>15.4</v>
       </c>
@@ -4294,7 +4263,7 @@
         <v>5.931</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>18</v>
       </c>
@@ -4320,7 +4289,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20.6</v>
       </c>
@@ -4346,7 +4315,7 @@
         <v>5.8540000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>23.1</v>
       </c>
@@ -4372,7 +4341,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>25.7</v>
       </c>
@@ -4398,7 +4367,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>28.3</v>
       </c>
@@ -4424,7 +4393,7 @@
         <v>5.5250000000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>30.8</v>
       </c>
@@ -4450,7 +4419,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>33.4</v>
       </c>
@@ -4476,7 +4445,7 @@
         <v>5.1449999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>36</v>
       </c>
@@ -4502,7 +4471,7 @@
         <v>4.907</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>38.6</v>
       </c>
@@ -4528,7 +4497,7 @@
         <v>4.6379999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>41.1</v>
       </c>
@@ -4554,7 +4523,7 @@
         <v>4.3419999999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>43.7</v>
       </c>
@@ -4580,7 +4549,7 @@
         <v>4.0439999999999996</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>46.3</v>
       </c>
@@ -4606,7 +4575,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>48.8</v>
       </c>
@@ -4632,7 +4601,7 @@
         <v>3.4289999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>51.4</v>
       </c>
@@ -4658,7 +4627,7 @@
         <v>3.1110000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>54</v>
       </c>
@@ -4684,7 +4653,7 @@
         <v>2.7869999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>56.5</v>
       </c>
@@ -4710,7 +4679,7 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>59.1</v>
       </c>
@@ -4736,7 +4705,7 @@
         <v>2.1190000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>61.7</v>
       </c>
@@ -4762,7 +4731,7 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>64.3</v>
       </c>
@@ -4788,7 +4757,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>66.8</v>
       </c>
@@ -4814,7 +4783,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>69.400000000000006</v>
       </c>
@@ -4840,7 +4809,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>72</v>
       </c>
@@ -4866,7 +4835,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>74.5</v>
       </c>
@@ -4892,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4906,7 +4875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4932,7 +4901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4952,7 +4921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4978,7 +4947,7 @@
         <v>8.8559999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3.1</v>
       </c>
@@ -5004,7 +4973,7 @@
         <v>8.8610000000000007</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6.2</v>
       </c>
@@ -5030,7 +4999,7 @@
         <v>8.8580000000000005</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9.1999999999999993</v>
       </c>
@@ -5056,7 +5025,7 @@
         <v>8.8490000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>12.3</v>
       </c>
@@ -5082,7 +5051,7 @@
         <v>8.8320000000000007</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>15.4</v>
       </c>
@@ -5108,7 +5077,7 @@
         <v>8.8049999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>18.5</v>
       </c>
@@ -5134,7 +5103,7 @@
         <v>8.766</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>21.6</v>
       </c>
@@ -5160,7 +5129,7 @@
         <v>8.7110000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>24.6</v>
       </c>
@@ -5186,7 +5155,7 @@
         <v>8.6359999999999992</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>27.7</v>
       </c>
@@ -5212,7 +5181,7 @@
         <v>8.5250000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>30.8</v>
       </c>
@@ -5238,7 +5207,7 @@
         <v>8.3529999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>33.9</v>
       </c>
@@ -5264,7 +5233,7 @@
         <v>8.1259999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>37</v>
       </c>
@@ -5290,7 +5259,7 @@
         <v>7.8520000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>40</v>
       </c>
@@ -5316,7 +5285,7 @@
         <v>7.5339999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>43.1</v>
       </c>
@@ -5342,7 +5311,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>46.2</v>
       </c>
@@ -5368,7 +5337,7 @@
         <v>6.766</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>49.3</v>
       </c>
@@ -5394,7 +5363,7 @@
         <v>6.3289999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>52.4</v>
       </c>
@@ -5420,7 +5389,7 @@
         <v>5.8949999999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>55.4</v>
       </c>
@@ -5446,7 +5415,7 @@
         <v>5.4539999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>58.5</v>
       </c>
@@ -5472,7 +5441,7 @@
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>61.6</v>
       </c>
@@ -5498,7 +5467,7 @@
         <v>4.5389999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>64.7</v>
       </c>
@@ -5524,7 +5493,7 @@
         <v>4.0670000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>67.8</v>
       </c>
@@ -5550,7 +5519,7 @@
         <v>3.5859999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>70.8</v>
       </c>
@@ -5576,7 +5545,7 @@
         <v>3.097</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>73.900000000000006</v>
       </c>
@@ -5602,7 +5571,7 @@
         <v>2.5990000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>77</v>
       </c>
@@ -5628,7 +5597,7 @@
         <v>2.0910000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>80.099999999999994</v>
       </c>
@@ -5654,7 +5623,7 @@
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>83.2</v>
       </c>
@@ -5680,7 +5649,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>86.2</v>
       </c>
@@ -5706,7 +5675,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>89.3</v>
       </c>
@@ -5732,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5746,7 +5715,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5772,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5792,7 +5761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5818,7 +5787,7 @@
         <v>12.206</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3.6</v>
       </c>
@@ -5844,7 +5813,7 @@
         <v>12.211</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7.2</v>
       </c>
@@ -5870,7 +5839,7 @@
         <v>12.209</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>10.8</v>
       </c>
@@ -5896,7 +5865,7 @@
         <v>12.194000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.4</v>
       </c>
@@ -5922,7 +5891,7 @@
         <v>12.167</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>18</v>
       </c>
@@ -5948,7 +5917,7 @@
         <v>12.125</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>21.6</v>
       </c>
@@ -5974,7 +5943,7 @@
         <v>12.066000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>25.2</v>
       </c>
@@ -6000,7 +5969,7 @@
         <v>11.986000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>28.8</v>
       </c>
@@ -6026,7 +5995,7 @@
         <v>11.881</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>32.4</v>
       </c>
@@ -6052,7 +6021,7 @@
         <v>11.741</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>36</v>
       </c>
@@ -6078,7 +6047,7 @@
         <v>11.523999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>39.6</v>
       </c>
@@ -6104,7 +6073,7 @@
         <v>11.212999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>43.2</v>
       </c>
@@ -6130,7 +6099,7 @@
         <v>10.829000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>46.8</v>
       </c>
@@ -6156,7 +6125,7 @@
         <v>10.387</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>50.4</v>
       </c>
@@ -6182,7 +6151,7 @@
         <v>9.8810000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>54</v>
       </c>
@@ -6208,7 +6177,7 @@
         <v>9.3209999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>57.6</v>
       </c>
@@ -6234,7 +6203,7 @@
         <v>8.7170000000000005</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>61.2</v>
       </c>
@@ -6260,7 +6229,7 @@
         <v>8.1159999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>64.8</v>
       </c>
@@ -6286,7 +6255,7 @@
         <v>7.5069999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>68.400000000000006</v>
       </c>
@@ -6312,7 +6281,7 @@
         <v>6.883</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>72</v>
       </c>
@@ -6338,7 +6307,7 @@
         <v>6.2439999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>75.599999999999994</v>
       </c>
@@ -6364,7 +6333,7 @@
         <v>5.5919999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>79.2</v>
       </c>
@@ -6390,7 +6359,7 @@
         <v>4.9260000000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>82.8</v>
       </c>
@@ -6416,7 +6385,7 @@
         <v>4.2489999999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>86.4</v>
       </c>
@@ -6442,7 +6411,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>90</v>
       </c>
@@ -6468,7 +6437,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>93.6</v>
       </c>
@@ -6494,7 +6463,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>97.2</v>
       </c>
@@ -6520,7 +6489,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>100.8</v>
       </c>
@@ -6546,7 +6515,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>104.4</v>
       </c>
@@ -6572,7 +6541,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6586,7 +6555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6612,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6632,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6658,7 +6627,7 @@
         <v>15.419</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4.0999999999999996</v>
       </c>
@@ -6684,7 +6653,7 @@
         <v>15.429</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8.1999999999999993</v>
       </c>
@@ -6710,7 +6679,7 @@
         <v>15.433999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>12.3</v>
       </c>
@@ -6736,7 +6705,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16.5</v>
       </c>
@@ -6762,7 +6731,7 @@
         <v>15.414999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>20.6</v>
       </c>
@@ -6788,7 +6757,7 @@
         <v>15.387</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>24.7</v>
       </c>
@@ -6814,7 +6783,7 @@
         <v>15.345000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>28.8</v>
       </c>
@@ -6840,7 +6809,7 @@
         <v>15.286</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>32.9</v>
       </c>
@@ -6866,7 +6835,7 @@
         <v>15.205</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>37</v>
       </c>
@@ -6892,7 +6861,7 @@
         <v>15.095000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>41.1</v>
       </c>
@@ -6918,7 +6887,7 @@
         <v>14.933</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>45.2</v>
       </c>
@@ -6944,7 +6913,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>49.4</v>
       </c>
@@ -6970,7 +6939,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>53.5</v>
       </c>
@@ -6996,7 +6965,7 @@
         <v>13.679</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>57.6</v>
       </c>
@@ -7022,7 +6991,7 @@
         <v>13.068</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>61.7</v>
       </c>
@@ -7048,7 +7017,7 @@
         <v>12.364000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>65.8</v>
       </c>
@@ -7074,7 +7043,7 @@
         <v>11.581</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>69.900000000000006</v>
       </c>
@@ -7100,7 +7069,7 @@
         <v>10.784000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>74</v>
       </c>
@@ -7126,7 +7095,7 @@
         <v>9.9760000000000009</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>78.099999999999994</v>
       </c>
@@ -7152,7 +7121,7 @@
         <v>9.1479999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>82.3</v>
       </c>
@@ -7178,7 +7147,7 @@
         <v>8.3040000000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>86.4</v>
       </c>
@@ -7204,7 +7173,7 @@
         <v>7.4409999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>90.5</v>
       </c>
@@ -7230,7 +7199,7 @@
         <v>6.5549999999999997</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>94.6</v>
       </c>
@@ -7256,7 +7225,7 @@
         <v>5.6539999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>98.7</v>
       </c>
@@ -7282,7 +7251,7 @@
         <v>4.7359999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>102.8</v>
       </c>
@@ -7308,7 +7277,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>106.9</v>
       </c>
@@ -7334,7 +7303,7 @@
         <v>2.863</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>111</v>
       </c>
@@ -7360,7 +7329,7 @@
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>115.2</v>
       </c>
@@ -7386,7 +7355,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>119.3</v>
       </c>
@@ -7412,7 +7381,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7426,7 +7395,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7452,7 +7421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7472,7 +7441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7498,7 +7467,7 @@
         <v>18.891999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4.5999999999999996</v>
       </c>
@@ -7524,7 +7493,7 @@
         <v>18.908000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9.3000000000000007</v>
       </c>
@@ -7550,7 +7519,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>13.9</v>
       </c>
@@ -7576,7 +7545,7 @@
         <v>18.928000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>18.5</v>
       </c>
@@ -7602,7 +7571,7 @@
         <v>18.931999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>23.1</v>
       </c>
@@ -7628,7 +7597,7 @@
         <v>18.928999999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>27.8</v>
       </c>
@@ -7654,7 +7623,7 @@
         <v>18.914999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>32.4</v>
       </c>
@@ -7680,7 +7649,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>37</v>
       </c>
@@ -7706,7 +7675,7 @@
         <v>18.853000000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>41.6</v>
       </c>
@@ -7732,7 +7701,7 @@
         <v>18.795000000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>46.3</v>
       </c>
@@ -7758,7 +7727,7 @@
         <v>18.707000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>50.9</v>
       </c>
@@ -7784,7 +7753,7 @@
         <v>18.527000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>55.5</v>
       </c>
@@ -7810,7 +7779,7 @@
         <v>18.109000000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>60.2</v>
       </c>
@@ -7836,7 +7805,7 @@
         <v>17.529</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>64.8</v>
       </c>
@@ -7862,7 +7831,7 @@
         <v>16.812999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>69.400000000000006</v>
       </c>
@@ -7888,7 +7857,7 @@
         <v>15.958</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>74</v>
       </c>
@@ -7914,7 +7883,7 @@
         <v>14.973000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>78.7</v>
       </c>
@@ -7940,7 +7909,7 @@
         <v>13.946999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>83.3</v>
       </c>
@@ -7966,7 +7935,7 @@
         <v>12.901</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>87.9</v>
       </c>
@@ -7992,7 +7961,7 @@
         <v>11.835000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>92.5</v>
       </c>
@@ -8018,7 +7987,7 @@
         <v>10.744</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>97.2</v>
       </c>
@@ -8044,7 +8013,7 @@
         <v>9.6319999999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>101.8</v>
       </c>
@@ -8070,7 +8039,7 @@
         <v>8.4909999999999997</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>106.4</v>
       </c>
@@ -8096,7 +8065,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>111.1</v>
       </c>
@@ -8122,7 +8091,7 @@
         <v>6.1449999999999996</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>115.7</v>
       </c>
@@ -8148,7 +8117,7 @@
         <v>4.9390000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>120.3</v>
       </c>
@@ -8174,7 +8143,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>124.9</v>
       </c>
@@ -8200,7 +8169,7 @@
         <v>2.504</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>129.6</v>
       </c>
@@ -8226,7 +8195,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>134.19999999999999</v>
       </c>
@@ -8252,7 +8221,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8266,7 +8235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8292,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8312,7 +8281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8338,7 +8307,7 @@
         <v>22.573</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5.0999999999999996</v>
       </c>
@@ -8364,7 +8333,7 @@
         <v>22.594999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>10.3</v>
       </c>
@@ -8390,7 +8359,7 @@
         <v>22.619</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>15.4</v>
       </c>
@@ -8416,7 +8385,7 @@
         <v>22.645</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>20.5</v>
       </c>
@@ -8442,7 +8411,7 @@
         <v>22.673999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>25.7</v>
       </c>
@@ -8468,7 +8437,7 @@
         <v>22.704999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>30.8</v>
       </c>
@@ -8494,7 +8463,7 @@
         <v>22.74</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>35.9</v>
       </c>
@@ -8520,7 +8489,7 @@
         <v>22.777000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>41.1</v>
       </c>
@@ -8546,7 +8515,7 @@
         <v>22.809000000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>46.2</v>
       </c>
@@ -8572,7 +8541,7 @@
         <v>22.832999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>51.3</v>
       </c>
@@ -8598,7 +8567,7 @@
         <v>22.846</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>56.5</v>
       </c>
@@ -8624,7 +8593,7 @@
         <v>22.831</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>61.6</v>
       </c>
@@ -8650,7 +8619,7 @@
         <v>22.655999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>66.7</v>
       </c>
@@ -8676,7 +8645,7 @@
         <v>22.071999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>71.900000000000006</v>
       </c>
@@ -8702,7 +8671,7 @@
         <v>21.266999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>77</v>
       </c>
@@ -8728,7 +8697,7 @@
         <v>20.248000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>82.1</v>
       </c>
@@ -8754,7 +8723,7 @@
         <v>19.039000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>87.3</v>
       </c>
@@ -8780,7 +8749,7 @@
         <v>17.748999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>92.4</v>
       </c>
@@ -8806,7 +8775,7 @@
         <v>16.428999999999998</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>97.5</v>
       </c>
@@ -8832,7 +8801,7 @@
         <v>15.083</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>102.7</v>
       </c>
@@ -8858,7 +8827,7 @@
         <v>13.711</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>107.8</v>
       </c>
@@ -8884,7 +8853,7 @@
         <v>12.301</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>112.9</v>
       </c>
@@ -8910,7 +8879,7 @@
         <v>10.859</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>118.1</v>
       </c>
@@ -8936,7 +8905,7 @@
         <v>9.3870000000000005</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>123.2</v>
       </c>
@@ -8962,7 +8931,7 @@
         <v>7.8869999999999996</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>128.30000000000001</v>
       </c>
@@ -8988,7 +8957,7 @@
         <v>6.3630000000000004</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>133.5</v>
       </c>
@@ -9014,7 +8983,7 @@
         <v>4.819</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>138.6</v>
       </c>
@@ -9040,7 +9009,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>143.69999999999999</v>
       </c>
@@ -9066,7 +9035,7 @@
         <v>1.673</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>148.9</v>
       </c>
@@ -9092,7 +9061,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9106,7 +9075,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9132,7 +9101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9152,7 +9121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9178,7 +9147,7 @@
         <v>27.452000000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5.6</v>
       </c>
@@ -9204,7 +9173,7 @@
         <v>27.475000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>11.3</v>
       </c>
@@ -9230,7 +9199,7 @@
         <v>27.501999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>16.899999999999999</v>
       </c>
@@ -9256,7 +9225,7 @@
         <v>27.53</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>22.6</v>
       </c>
@@ -9282,7 +9251,7 @@
         <v>27.562999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>28.2</v>
       </c>
@@ -9308,7 +9277,7 @@
         <v>27.597999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>33.799999999999997</v>
       </c>
@@ -9334,7 +9303,7 @@
         <v>27.637</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>39.5</v>
       </c>
@@ -9360,7 +9329,7 @@
         <v>27.675000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>45.1</v>
       </c>
@@ -9386,7 +9355,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>50.8</v>
       </c>
@@ -9412,7 +9381,7 @@
         <v>27.779</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>56.4</v>
       </c>
@@ -9438,7 +9407,7 @@
         <v>27.827999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>62</v>
       </c>
@@ -9464,7 +9433,7 @@
         <v>27.867999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>67.7</v>
       </c>
@@ -9490,7 +9459,7 @@
         <v>27.904</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>73.3</v>
       </c>
@@ -9516,7 +9485,7 @@
         <v>27.811</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>79</v>
       </c>
@@ -9542,35 +9511,33 @@
         <v>27.015999999999998</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>84.6</v>
       </c>
-      <c r="B403" t="s">
-        <v>46</v>
-      </c>
-      <c r="C403" t="e" cm="1">
-        <f t="array" ref="C403">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D403" t="e" cm="1">
-        <f t="array" ref="D403">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E403" t="e" cm="1">
-        <f t="array" ref="E403">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F403" t="e" cm="1">
-        <f t="array" ref="F403">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G403" t="e" cm="1">
-        <f t="array" ref="G403">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>0.51</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>90.2</v>
       </c>
@@ -9596,7 +9563,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>95.9</v>
       </c>
@@ -9622,7 +9589,7 @@
         <v>22.459</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>101.5</v>
       </c>
@@ -9648,7 +9615,7 @@
         <v>20.776</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>107.2</v>
       </c>
@@ -9674,7 +9641,7 @@
         <v>19.068000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>112.8</v>
       </c>
@@ -9700,7 +9667,7 @@
         <v>17.335999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>118.5</v>
       </c>
@@ -9726,7 +9693,7 @@
         <v>15.573</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>124.1</v>
       </c>
@@ -9752,7 +9719,7 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>129.69999999999999</v>
       </c>
@@ -9778,7 +9745,7 @@
         <v>11.927</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>135.4</v>
       </c>
@@ -9804,7 +9771,7 @@
         <v>10.041</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>141</v>
       </c>
@@ -9830,7 +9797,7 @@
         <v>8.1180000000000003</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>146.69999999999999</v>
       </c>
@@ -9856,7 +9823,7 @@
         <v>6.1669999999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>152.30000000000001</v>
       </c>
@@ -9882,7 +9849,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>157.9</v>
       </c>
@@ -9908,7 +9875,7 @@
         <v>2.1269999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>163.6</v>
       </c>
@@ -9934,7 +9901,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9948,7 +9915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9974,7 +9941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9994,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10020,7 +9987,7 @@
         <v>32.912999999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6.1</v>
       </c>
@@ -10046,7 +10013,7 @@
         <v>32.942999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>12.3</v>
       </c>
@@ -10072,7 +10039,7 @@
         <v>32.969000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>18.399999999999999</v>
       </c>
@@ -10098,7 +10065,7 @@
         <v>32.982999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>24.6</v>
       </c>
@@ -10124,7 +10091,7 @@
         <v>33.020000000000003</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>30.7</v>
       </c>
@@ -10150,7 +10117,7 @@
         <v>33.063000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>36.799999999999997</v>
       </c>
@@ -10176,7 +10143,7 @@
         <v>33.101999999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>43</v>
       </c>
@@ -10202,7 +10169,7 @@
         <v>32.972000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>49.1</v>
       </c>
@@ -10228,7 +10195,7 @@
         <v>33.185000000000002</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>55.3</v>
       </c>
@@ -10254,7 +10221,7 @@
         <v>33.244</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>61.4</v>
       </c>
@@ -10280,7 +10247,7 @@
         <v>33.302999999999997</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>67.5</v>
       </c>
@@ -10306,7 +10273,7 @@
         <v>33.225999999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>73.7</v>
       </c>
@@ -10332,7 +10299,7 @@
         <v>33.427999999999997</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>79.8</v>
       </c>
@@ -10358,7 +10325,7 @@
         <v>33.390999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>86</v>
       </c>
@@ -10384,7 +10351,7 @@
         <v>33.353999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>92.1</v>
       </c>
@@ -10410,7 +10377,7 @@
         <v>32.436999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>98.2</v>
       </c>
@@ -10436,7 +10403,7 @@
         <v>30.978000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>104.4</v>
       </c>
@@ -10462,7 +10429,7 @@
         <v>29.308</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>110.5</v>
       </c>
@@ -10488,7 +10455,7 @@
         <v>27.396999999999998</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>116.7</v>
       </c>
@@ -10514,7 +10481,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>122.8</v>
       </c>
@@ -10540,7 +10507,7 @@
         <v>23.172999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>128.9</v>
       </c>
@@ -10566,7 +10533,7 @@
         <v>20.98</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>135.1</v>
       </c>
@@ -10592,7 +10559,7 @@
         <v>18.721</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>141.19999999999999</v>
       </c>
@@ -10618,63 +10585,59 @@
         <v>16.048999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>147.4</v>
       </c>
-      <c r="B449" t="s">
-        <v>47</v>
-      </c>
-      <c r="C449" t="e" cm="1">
-        <f t="array" ref="C449">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D449" t="e" cm="1">
-        <f t="array" ref="D449">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E449" t="e" cm="1">
-        <f t="array" ref="E449">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F449" t="e" cm="1">
-        <f t="array" ref="F449">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G449" t="e" cm="1">
-        <f t="array" ref="G449">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>0.81</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>153.5</v>
       </c>
-      <c r="B450" t="s">
-        <v>48</v>
-      </c>
-      <c r="C450" t="e" cm="1">
-        <f t="array" ref="C450">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D450" t="e" cm="1">
-        <f t="array" ref="D450">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E450" t="e" cm="1">
-        <f t="array" ref="E450">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F450" t="e" cm="1">
-        <f t="array" ref="F450">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G450" t="e" cm="1">
-        <f t="array" ref="G450">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>0.84</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>159.6</v>
       </c>
@@ -10700,7 +10663,7 @@
         <v>8.2379999999999995</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>165.8</v>
       </c>
@@ -10726,7 +10689,7 @@
         <v>5.585</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>171.9</v>
       </c>
@@ -10752,7 +10715,7 @@
         <v>2.9209999999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>178.1</v>
       </c>
